--- a/500all/speech_level/speeches_CHRG-114hhrg96926.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96926.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400244</t>
   </si>
   <si>
-    <t>Frank A. LoBiondo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Good morning. The subcommittee will come to order. I would like to thank everyone for being here. I ask unanimous consent that Members not on the subcommittee be permitted to sit with the subcommittee at today's hearing, offer testimony, and ask questions.    [No response.]</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Chairman LoBiondo, for holding today's hearing on ensuring aviation safety in an era of unmanned aircraft systems.    I am pleased we are here this morning to address this important and timely topic of the safety of UAS in the national airspace. The number of unmanned aircraft being sold in the U.S. is staggering. According to one industry group, the number of UAS sold this year could reach 700,000. That is a 63-percent increase over last year. Other reports suggest that figure will soon reach 1 million, and it will continue to grow.    So, the natural question becomes who are flying these million-plus unmanned aircraft? Many, as we are going to hear, are responsible and safe users. These include serious hobbyists, such as those represented by the Academy of Model Aeronautics, who are here today, and commercial users with a financial interest in safe, responsible operations.    But, unfortunately, they also include people who are not familiar with the rules of aviation or concepts of aviation safety. There are 600-plus reports of near misses between conventional aircraft and drones so far this year that tells us what we need to do more to reduce the likelihood of a drone ending up in the flight path of a commercial airliner with hundreds of people on board.    These 600-plus pilot sightings suggest that allowing anyone to fly a drone on or near the Nation's airways is like letting people drive remote-controlled model cars on the interstate. Unless more is done, it is not if an accident will happen, it is when.    The committee staff found some pilot reports in NASA's [National Aeronautics and Space Administration's] Aviation Safety Reporting System of some pretty scary encounters. One pilot reported that he ``encountered a drone that came close enough to hear the propeller noise from the drone from inside my cabin...The small size of the drone made it impossible to see until it was too late to take any evasive action.'' And the list continues.    In addition to risks in the air, unmanned aircraft pose risks on the ground. This year an aerial vehicle crashed into parade-goers in Seattle, injuring one woman when it crashed into her head. I look forward to hearing from our witnesses today about what the FAA and stakeholders are doing to address the safety risks before it is too late.    But we cannot deny the extensive public and commercial benefits of unmanned aircraft, as well. UAS can be used for search and rescue, wildfire mitigation, as well as the inspection of bridges and other critical transportation infrastructure. The UAS industry has great potential to drive growth and create jobs. One industry trade group estimates that, in just 10 years, unmanned aircraft will create 100,000 jobs, and add $82 billion in value to our economy. That is particularly important to States like my home State of Washington, a hub of aviation research and development.    This committee has an enormous opportunity to be proactive, to listen to these experts today, to understand what Congress can do to help keep our Nation's skies safe, and produce legislation about UAS that will reflect our safety agenda, while doing no harm to a promising industry.    The FAA Act of 2012 directed FAA to safely integrate unmanned aircraft by 2015, and required the agency to issue regulations on small, unmanned aircraft. While FAA expects to issue this delayed rule next year, this action will provide regulation to safely implement primarily commercial operations. The question I hope we get at today is what should Congress do, and what can FAA do, as well, to ensure the safety of recreational UAS operations.    Some have said that section 336 of the 2012 bill prohibits the agency from taking any meaningful action to regulate small recreational unmanned aircraft. I would caution against a broad interpretation of that provision, which is crafted to apply very narrowly. In fact, in light of all the safety events that have emerged this year, maybe it is time to revisit that provision.    So, I look forward to hearing from all of our panelists today about what Congress, about what the FAA, and, importantly as well, what the industry can do to keep the integration of UAS on track, and to ensure safety. Thank you.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman. Appreciate the opportunity, appreciate the fact of you convening the committee on this important topic today.    Yes, there is tremendous potential in commercial application of drone technology. But, first and foremost, we have to establish the rules that absolutely ensure the integrity and the safety of our aviation system today. We have seen instances mentioned by the ranking member earlier of these toy drones in critical airspace. At this point we don't really know what happens when you suck a quadcopter into a jet engine. And, at my request, the FAA is moving forward with an evaluation.    We did, after an investigation in 2009 for Pittsburgh--or 1994, Pittsburgh, possible bird strike, they calculated a 4-pound bird hits an airplane moving at 260 miles an hour, generates a force equal to 14 tons. Well, you have some of these toys up there in the air that weigh that much. And so, what could that do, if ingested? So we need to know.    What are the solutions? Well, clearly, there are commercial applications, which the FAA is moving forward with. The issue, I believe, can be kind of drawn between toys and commercial applications. And the toys need to be restricted, in terms of where they can operate. That is, they should be programmed before they can be sold, so that they can't fly in restricted airspace, they can't fly over 400 feet. And anybody who is found to have hacked that should be subject--and operates irresponsibly--should be subject to serious penalties and fines.    I think we might also have to look at registration. I had an instance in my hometown of Springfield. Somebody, a Peeping Tom, was using a little drone, looking with a camera, looking in people's windows. It was sighted by the neighbors, and ultimately it crashed. Well, the police have no idea who was operating that thing. We have no way to track it back. There should be a way to track these things back to irresponsible operators, people who are using them illegally, improperly, and endangering both personal privacy and, potentially, safety of the traveling public.    So, I think there is a lot of work to be done. We are going to hear today from the Forest Service. We had interruption in critical firefighting activities this summer because of idiots flying their toy drones into areas where we wanted to operate aircraft to fight the fire, and they had to suspend operations.    There needs to be consequences for people who do those sorts of things, and I expect this committee to work with the FAA to see if they have the authority to take proper action against these sort of people, or whether they need new authorities, and we need new regulations, so that we can divide between people who are using them responsibly, whether for recreation, or those who are using them responsibly and commercially, and those who are the minority, who are using them irresponsibly.    I was called by a reporter last week. They said they expect 1 million of these toy drones to sell for Christmas this year, 1 million. How many of those million people have any idea--obviously, a lot of them live in restricted airspace--what restricted airspace is, and whether or not they can operate the drone there? I don't think they know. So there also has to be a massive educational campaign, in part, which should be pushed forward and paid for by the manufacturers of these toys, who are profiting from their sale. With that, Mr. Chairman, I look forward to the testimony. Thank you.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitaker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitaker. Chairman LoBiondo, Ranking Member Larsen, members of the subcommittee, thank you for the opportunity to appear before you today to discuss----</t>
   </si>
   <si>
@@ -112,18 +100,12 @@
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Mr. Whitaker.    Mr. Hubbard, you are now recognized.</t>
   </si>
   <si>
-    <t>Hubbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hubbard. Thank you, Mr. Chairman, members of the committee. The Forest Service, just as a little bit of background of how we get into this, our latest fire season we responded to 47,000 fires. We had 9 million acres of affected territory. We mobilized 27,000 people, with another 5,000 in reserve for initial attack.    The future of wildland fire, especially in the West, is probably not going to be much different than that. It--the vegetative conditions, the drought, and the nature of our forests is going to be prone to this kind of fire for some time to come.    Our primary initial attack firefighting tool is aviation. We send air tankers as fast as we can. They don't put fires out, ground troops do, but they are an initial attack response. They also support large fire, and our priority is always life and property, so that gets the most attention.    Unmanned aviation systems are also useful to us. In firefighting they help us with situational awareness, they help us with communication, they help us with monitoring and tracking fire behavior, all safety issues that are valuable.    Our challenge is the incursions. I wouldn't say that our statistics are significant compared to everybody else's, but the trend is a little bit worrisome. In 2014, we only had four incursions. In 2015 we had 21 incursions. So it is on the rise. Twelve of those incursions stopped those initial attack operations. That is not something that we welcome.    And it is further complicated because we are talking about aircraft that operate in a complex environment. We are talking about rotary aircraft, as well as fixed-wing aircraft over the fire at the same time. We are talking about 150 feet of operational altitude. We are talking about, prior to, temporary flight restriction. So it is not a simple matter.    We don't presume to know how to address this. We rely on the FAA. But the Department of the Interior and the Forest Service and the State firefighting organizations all worked together with FAA and the Department of Homeland Security on the technology and how to work our way through this.    In the meantime, public education is important. When we have fire, flames, and smoke in the air, we do get some media attention, and we incorporate into that as a regular message that, if you fly, we can't. So, trying to get that kind of a word out so people understand. A lot of this is from those who don't understand.    So, our risks are significant, we believe, if something were to happen in the air with a drone and our aircraft. Our frequency is not that much, but the trend would--is worrisome. We worry about the risk of identification and avoidance, so a few problems to solve.    We also recognize that this is--UAS is a valuable tool that we also take advantage of. Be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LoBiondo. OK, thank you, Mr. Hubbard.    Captain Canoll, your statement, please.</t>
   </si>
   <si>
-    <t>Canoll</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Canoll. Thank you, Chairman LoBiondo, Ranking Member Larsen, and the subcommittee, for the opportunity to be here today.    ALPA [Air Line Pilots Association, International] recognizes that unmanned aircraft systems, or UAS, can allow us to perform certain tasks more efficiently and safely than conventional aircraft. We also understand the value of advancing America's competitiveness in these technologies. That said, ALPA's overarching concern is one of safety.    This summer the FAA released hundreds of pilot reports on UAS sightings. The FAA numbers show more encounters are happening more often. Noncommercial and recreational UAS operations appear to be the primary source. Here are a few examples: pilots operating an all-cargo flight near San Jose reported a close encounter with a UAS flying 60 to 70 feet to the left of the aircraft. They subsequently described it as four-bladed and X-shaped. As an airline captain, I can tell you if a pilot is able to report this level of detail, the UAS is way too close.    Also, multiple UAS were recently reported by three airliners on final approach to Newark Liberty International Airport. In April, a pilot reported a blue metallic drone pass about 100 to 200 feet under the left wing of the airliner arriving at Seattle-Tacoma International Airport.    For pilots, these UAS literally appear out of the blue. They are much smaller than other aircraft. Some UAS do not have lights. They have limited contrast against visual background, and they move much more slowly than airliners. As a result, these UAS are extremely difficult to see in flight.    [Video shown.]</t>
   </si>
   <si>
@@ -133,18 +115,12 @@
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Captain.    Mr. Hanson, you are recognized.</t>
   </si>
   <si>
-    <t>Hanson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hanson. Thank you for the opportunity to participate in today's hearing. I am speaking on behalf of the Academy of Model Aeronautics, the world's largest organization representing more than 180,000 members who fly small, unmanned aircraft systems, or model aircraft, as we call them, for recreational and educational purposes.    For nearly 80 years, AMA has been dedicated to promoting and preserving the hobby of flying model aircraft, while ensuring our members adhere to a strict set of community-based safety guidelines. Our National Model Aircraft Safety Code has been recognized by Congress and State legislatures as a safe and effective means of managing hobbyists. These guidelines have evolved to accommodate new technologies, new modeling disciplines, and, most recently, address the personal use of small UAS. Our membership is a cross-section of America. It is a diverse community of youth and adults that range from the ages of 6 to 96.    As you know, there is an unprecedented growth in the industry. According to the Consumer Electronics Association, sales in the U.S. this year will reach 700,000 units. The growth of the technology and the supporting industry is exciting, and is beneficial to our economy and to our society. But, as with any emerging technology, there are policy considerations, such as balancing safety, sustaining industry growth, and capturing the public benefits.    Before I touch on these points, I want to take a step back and discuss the current landscape. We have been very concerned about recent headlines that portray drones as clogging U.S. airspace, snarling air traffic, and giving the FAA fits. That is why the AMA [Academy of Model Aeronautics] closely analyzed the 764 records of drone sightings released by the FAA this summer. Our analysis reveals a more complex picture than headlines would suggest.    Indisputably, there are some records of near misses that represent actual safety concerns. And more needs to be done to address those. But we found that the number of near misses appears to be in the dozens, not in the hundreds, based on explicit notations in the FAA records.    So, the most serious incidents include two actual crashes involving Government-authorized military drones. There are also sightings of public entities and commercial operators that may be flying with or without authorization. And the most recent sighting or incident where the FAA has assessed a fine to a commercial operator indicates that the operations occurring in our airspace go well beyond hobbyist activity. And others may not even be drones, but rather, balloons, birds, model rockets, and mini blimps.    There is some useful information in the FAA's data set, but this data is only helpful if the FAA, the media, and others take the time to analyze and accurately categorize it. AMA has worked closely with the FAA for many years, and we are committed to a continued partnership to promote model aircraft and consumer drone safety. And while the FAA needs to do a better job of presenting the data, AMA has several recommendations to ensure the safety of our Nation's airspace.    One of the most immediate and helpful things the FAA can do to increase safety is to finalize and implement the small UAS rules. As they are currently written, the proposed rule will enhance safety by requiring everyone who wants to fly to either participate in the safety programming of a community-based organization like AMA, or follow new FAA rules for operators for commercial purposes. Once implemented, the new rules will help provide oversight and education for the UAS operators.    At the same time, the FAA should step up enforcement as they have currently demonstrated, and work more closely with local law enforcement to pursue bad actors. There are existing Federal prohibitions against careless and reckless operations, and many jurisdictions have criminal laws in place.    In addition, promoting safety through education is another important step we can all take. AMA members know where and where not to fly, and do so safely and responsibly. Unfortunately, many newcomers to UAS may not be aware of these safety considerations.    That is why the AMA, in partnership with the Association for Unmanned Vehicle Systems International and the FAA, launched the Know Before You Fly campaign during the last holiday season. Unmanned aircraft systems are going to be a reality within our communities, and it is a community approach that is going to best address that. This new campaign works to put important safety information and flying tips in the hands of the newcomers. Many organizations from the manned and unmanned communities have joined the campaign, including the Air Line Pilots Association that is here with us today.    Finally, it has been suggested that technology itself can be the solution. And, to the industry's credit, many of the leading companies that manufacture UAS for both commercial and recreational purposes have developed and implemented technologies that address some of the concerns. While technology can be a useful tool for situational awareness, it is no substitute for education.    In the aviation world, there is a longstanding tradition of putting the responsibility for safety in the hands of the pilot and the person operating the aircraft.    I thank you again for this opportunity to participate, and I look forward to answering any questions you might have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Mr. Hanson.    Dr. Kochenderfer?</t>
   </si>
   <si>
-    <t>Kochenderfer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Kochenderfer. Chairman LoBiondo, Ranking Member Larsen, and members of the subcommittee, I am a professor in the Department of Aeronautics and Astronautics at Stanford University, and I am a third-generation pilot. My research for nearly 10 years has involved statistical estimation of risk and the development of technology for enhancing aviation safety.    Personally, I find the rapid acceleration of unmanned aircraft technology to be the most exciting recent development in the field of aeronautics. The proliferation of unmanned aircraft has made aviation accessible, and has inspired a generation of eager university students in a way that we haven't seen for a long time. The growing popularity of these vehicles has also raised concern about safety.    So how do we go about measuring and analyzing these risks? To answer this, we must understand that risk is determined by both the likelihood and the severity of different hazards.    First, let us consider severity. A sufficiently large drone can damage any part of an aircraft. But one of the most severe hazards is engine ingestion. The US Airways flight in 2009 was struck by multiple Canada geese. Of course, a flock of sufficiently large drones could cause similar damage. However, flocks of drones are rare, and most consumer drones, just like the DJI Phantom, are less than one-third of the weight of a Canada goose.    I am not aware of any engine ingestion testing of the Phantom, but it is certainly conceivable that it would cause some degree of damage to an engine, but probably not of the severity that occurred with the US Airways flight.    What is the likelihood of a midair collision involving a drone? In order for a collision to occur, the drone has to be at the same altitude and the same geographic location as another aircraft. An analysis of radar data indicates that there are large areas of the country where the risk of encountering another aircraft is negligible. However, there are portions of the airspace where the likelihood of a collision is orders of magnitude more significant.    There are several technologies that can help mitigate risk. Altitude limits can be implemented fairly reliably, and only require a barometric altimeter. Implementing geofencing is more difficult, because it relies on an up-to-date database of geofence locations and accurate GPS location. But the safety risks can be significantly reduced with such technology.    I am not a policymaker, but I believe that it would be wise to set altitude limits for drones capable of flying above 400 feet. The cost to add this safety feature, if it doesn't already exist, is fairly negligible. Most drones capable of flying above 400 feet already have an altimeter.    One of the first things a new user might do after opening the box is to see how high the drone can go. This altitude limit would not ensure safety or prevent interference with firefighting on its own, but it will certainly help naive users and discourage reckless users. Preventing a conscientious user like a firefighter from overriding an altitude limit is problematic. The exact approach for overriding limits is still being thought through by industry, and I believe it is too early to mandate a particular mechanism.    Altitude limitations in geofences are near-term risk mitigation measures, but it is becoming clear that some kind of infrastructure is needed to facilitate the integration of commercial drones into the airspace. NASA Ames, in collaboration with industry and academia, has been pursuing the development of the UAS traffic management system. However, there is still tremendous research to be done.    When flying in the same airspace as manned aircraft, a sense-and-avoid system is likely to be necessary to help prevent collision. The FAA has successfully flight-tested the ACAS X system [Airborne Collision Avoidance System X] for large drones, and some of the technology may extend to smaller drones.    In conclusion, the growing popularity of commercially available drones presents a risk that should not be ignored. Education should play a major role in risk reduction. In addition, there are technologies that can be easily implemented by manufacturers to help prevent inadvertent airspace violations. It is in the interest of the drone industry to implement these safety measures. It is in the interest of our Nation to support the research needed to ensure aviation safety as our technology evolves.    Thank you for the opportunity.</t>
   </si>
   <si>
@@ -241,9 +217,6 @@
     <t>400440</t>
   </si>
   <si>
-    <t>Don Young</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Young. Thank you, Mr. Chairman, and the ranking member, for holding this hearing. You know, the University of Alaska in Fairbanks is named one of the designated area test sites for the UAS. But the frustration they have is the certification of authority process, Mr. Whitaker.    Is the FAA doing anything to shorten this process? They have been granted, but it takes a long, long time. Why does it take that long? Are you improving that time factor?</t>
   </si>
   <si>
@@ -337,9 +310,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman, and thank you for holding this hearing.    Mr. Whitaker, what is today's date?</t>
   </si>
   <si>
@@ -451,9 +421,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you, Mr. Chairman. My first question is for Mr. Hanson.    In your statement you disagree with the FAA regarding the number of UAS near-miss reports with the FAA, that are received by the FAA. Does AMA have a data collection and analysis program underway to collect near-miss reports from UAS users or airline pilots? And how does AMA substantiate your statement, that the number of reports are actually much lower?</t>
   </si>
   <si>
@@ -493,9 +460,6 @@
     <t>412482</t>
   </si>
   <si>
-    <t>Blake Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much.    Mr. Canoll, you were talking about the need to register drones and enforcement and all. Would that be all drones, or are you just--is there some size limit, or some cutoff point at which you ought to be able to have a toy drone without having to turn your identity over to the Federal Government?</t>
   </si>
   <si>
@@ -568,9 +532,6 @@
     <t>412516</t>
   </si>
   <si>
-    <t>Julia Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. Mr. Whitaker, in my congressional district, in Ventura County in California, the sheriff's department is the only public agency that currently uses UAS, aside from the Navy--we have a big naval base there, and future home of the Triton on the west coast. But the sheriff's department has received a certificate of authorization to operate the device. They use it primarily for search and rescue. We have mountains in the district, so it is very helpful, from that perspective.    But every time the sheriff's office operates, they notify the nearby FAA air traffic control towers, and they also file a Notice to Airmen. And, as I understand it, that it not required, but they do it, they take the step out of an abundance of caution. Is that something that you, the FAA, might consider in their rule, in terms of a requirement that people who are operating UAS would have to do--on a commercial basis, obviously?</t>
   </si>
   <si>
@@ -640,9 +601,6 @@
     <t>412454</t>
   </si>
   <si>
-    <t>Richard L. Hanna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hanna. Thank you. As a pilot and someone who represents Griffiss Air Force Base, one of the six sites selected, I would suggest that there is more unanimity amongst you today than I have heard in a long time.    One of the problems is that we are probably a severe accident away from a public cry over why haven't we done something. Whereas, as Mr. Mica kind of implied, or said directly, Mr. Whitaker is off schedule, to be polite. And I would suggest there is urgency to this, as you know.    Mr. Canoll, you would have to agree that we are one accident away, I imagine, from something that people can't imagine that would create havoc, and be a rush to judgment about a whole lot of things that would affect Mr. Hanson's people. I have an 8-year-old son who owns three of these. If I bought him four more tomorrow, they would be wrecked by tomorrow night. They don't survive well, they are small.    But--and I don't see--I would say the Notice to Airmen is really--give the assumption that people have perfect information, that people call, investigate, do their homework. And I know, as a pilot, people do not.    I just--I wanted to ask you, Mr. Canoll, it is my kind of unconsidered opinion that these things do not belong near airports. And to that end, Mr. Hanson and Mr. Canoll, what kind of--and you have talked a lot about this in your statement, Mr. Canoll--is what kind of training do you think is appropriate that would--for the people that are flying these larger ones, or any one, if you will, that you would like to see?</t>
   </si>
   <si>
@@ -694,9 +652,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman and Ranking Member, thank you for the hearing, a very, very important one.    Mr. Larsen, you opened the issue of registration, and Mr. Farenthold picked it up, and I am--he mentioned picking up his smart phone at Amazon. It is registered. And most everything you buy today is registered, at least back to the manufacturer, in some way or another. It seems to me we don't need a Government registration program, but we need the Government to be able to access the registration program that the manufacturers probably already have.    It would be very simple to do that. Of course, we could spend several years trying to write a regulation to accomplish that, which is probably what we will do, because that is our specialty. Why don't we just simply say, ``All of these UAS must be registered, held by the manufacturer or the seller of that, and the Government has the ability to access that under circumstances relating to an accident or some other incident''? Fairly simple, but probably far too simple for our normal workaround here.    The question was just raised about airspace at an airport. You know, we can go back and forth with trying to find what geofencing is, and wait 20 years for some sort of technology to actually work, or we can simply say, ``Hey, if you are flying this UAS near a significant airport, a hub airport or a sub-hub airport, you are violating the law, and you are subject to a fine or even jail time. And, by the way, if you are flying near an active fire, you are subject to a fine and jail time.'' Now, that would immediately educate everybody involved in this sport or commercial activity.    Now, the other way around is study, study, study, which is the specialty of the Government, or those who don't want any interference by anybody.    So, anyway, I propose legislation introduced now, today--actually, yesterday--that simply says if you are flying a UAS within 2 miles of a significant airport, you are breaking the law, and you are subject to 1 year in jail and a significant fine. And if you are flying near an active fire, you are breaking the law and you are subject to 1 year in jail. Now, that is a pretty clear message.    So, Mr. Hubbard, what do you think of that, since you tend to fight fires?</t>
   </si>
   <si>
@@ -730,9 +685,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. Thank you, Chairman. Good morning, everyone. I appreciate your testimony.    Mr. Whitaker, it seems to me that folks in general aviation could work closely with drone operators and owners to help educate and train on these rules that are forthcoming, and different best practices for operations. Have you, as the FAA, reached out to any GA [general aviation] organizations or associations?</t>
   </si>
   <si>
@@ -895,9 +847,6 @@
     <t>400063</t>
   </si>
   <si>
-    <t>Michael E. Capuano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Capuano. Thank you, Mr. Chairman. Thank you, gentlemen. I am not going to say anything you don't already know, so you can go to sleep, it doesn't much matter.    But to be perfectly honest, I just got off a plane. If a drone pulls down a plane that I am on, I guarantee you everybody you represent is going to get sued. And if you put me on a jury on a case like that, you are all going to lose. Because we can do something. Maybe it is not perfect yet. I am sure it is not, because this is a new and evolving technology.    But doing nothing in the face of a clear danger is not an excuse, to be perfectly honest. Getting it right over time, fine. But we should be doing stuff. Putting an educational packet--look, I own two drones. Not really big ones. I haven't got a clue what the heck I am doing with them, either. I really stink at it, which, of course, is a danger.    Now, I don't know about the 2-mile limit on the airport, I live within 2 miles of an airport, and probably a lot of my constituents live a lot closer than that. I don't know. I wouldn't intentionally try to bring down a plane, but Christmas presents, Christmas Day, some kid doing something on a drone you can get out of Brookstone, nothing special. This is crazy.    We can do it on automobiles, we can do it on my phone. If I drop this phone today, right now, some very smart 15-year-old technology kid could figure out where I bought it, who it belongs to, where I was yesterday, who I called, et cetera, et cetera. Yet, if it happens to a drone, nobody knows. ``Well, I saw something, I don't know what it was.'' Come on. You can put VIN numbers on it, you can put all kinds of wonderful, tiny little technology on it, even in something as small as your finger. And if you can't do it, I can--not me--I can find people who can do it, to be able to track it down.    Never mind the regulations. Now, I am all for those thoughtful regulations, thoughtful licensing. Not a problem. I am not trying to shut down the technology at all. I think this technology is opening up a wonderful new frontier, both for hobbyists and for professionals at all kinds of levels. But it also presents a danger, and that danger shouldn't be accepted. And just because it is difficult, doesn't mean we shouldn't do something.    So, I don't really have any questions, because I know you can do it. I just see a reluctance to do it, especially from the FAA. And I don't understand it. I don't understand it at all. Do something before somebody loses their life on this. I don't want to be here, yelling at you for having done nothing. That is no fun. And I certainly don't want to be yelling at you if it is somebody I know, and somebody I love, or somebody you know and somebody you love, or somebody in your profession. This is crazy. Just get it done.    Now, again, I understand it won't be the last item. I know that this is an evolving thing. I know that coming up with smaller things and bigger uses--and I am not so sure about the 2-mile radius, because there are some parts of a 2-mile radius that there's no planes at all. But I also know that there are some places beyond 2 miles that it does. So I am not sure what the answer is.    You guys know it. You already know it. I am not trying to involve myself, or trying to prohibit any hobbyist from doing anything that is reasonable and thoughtful. And I think that 99 percent of the people who are using these things are well intended, and just might make accidents. But accidents didn't stop us from putting VIN numbers on automobiles, on 15 different places on automobiles. Accidents happen.    But there are also some people that are bad people. And if there are bad people out there doing bad things, we haven't done anything that I know of to be able to allow us to find them. If somebody intentionally goes out to Logan International Airport tomorrow and sits in East Boston and flies a drone intentionally into a plane to kill somebody, we have allowed the technology to not exist. And it exists easily to be able to find that perpetrator. So you can have all the criminal prosecutions in the world. If you can't find them, it is not going to help. You can find my phone, you can find my automobile. Heck, for all I know, you can probably find my underwear. I don't know. But we can't find drone owners, because we haven't required a simple item to be installed. If you want to do size, do size.    By the way, at Logan we have a lot of geese. You can't control geese. But we chase them around. We get dogs to chase them around. They have a great time. We do something. Maybe there are better ways to do it, but we do something. Something is always better than nothing in the face of a known danger.    Like I said, I wasn't going to say anything you didn't already know, but thank you for listening.</t>
   </si>
   <si>
@@ -907,9 +856,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Dr. K--I will call you Dr. K. Let me go to you.</t>
   </si>
   <si>
@@ -1000,18 +946,12 @@
     <t>412416</t>
   </si>
   <si>
-    <t>Rob Woodall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Woodall [presiding]. The gentleman yields back. The Chair recognizes the gentlelady from Nevada, Ms. Titus.</t>
   </si>
   <si>
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. I believe that FAA has a definition of ``near miss'' that is already in regulation that is a lot larger than what the professor mentioned. But, anyway, we can check that out.    I would like to direct my comments to the Administrator. But if any of the rest of you want to weigh in, I would appreciate that.    You know, I represent Las Vegas. And I was a strong proponent of Nevada being named one of the original test centers for this kind of technology. And you mentioned that they are there for collaboration and research. But what seems to have happened is that these test sites have kind of fizzled out. There is not a lot of attention there, they kind of don't know what their goal is, what they should be doing. I would like to get you to comment on that.    What can these test sites be doing, what is the FAA doing to encourage and support them? Seems like the FAA has now got all its attention on granting these section 333 exceptions, as opposed to working with the test sites. What is the point of them now? If you would, address that.    And I would also ask you that when they grant these exceptions, do you continue to get information from these facilities that now can fly? And how do you use that information to inform this process of regulation development? Or is that just once they get the exception they are out there, and we don't know what is going on?</t>
   </si>
   <si>
@@ -1087,9 +1027,6 @@
     <t>400607</t>
   </si>
   <si>
-    <t>Mark Sanford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sanford. Thank you, Chairman. It strikes me, I guess, three things hit me: one, the unmanned is the--if it is not the future of flight, it is certainly the next frontier of flight; two, that there has been a long-time fascination with flight, going back to the days of da Vinci, and moving forward to the Wright Brothers; and three, that we want to encourage innovation on that front. And, in general, Government regulation control and other inhibits that innovation that I think is vital, ultimately, to American competitiveness.    So, we want to have, you know, kids out there, fiddling with something. You say, ``Well, if you tie these three rocks onto it, will it fly as well?'' I mean, you know, at the base level, kids in the basement of a garage working with some of this stuff may well lead to innovations and new developments with regard to unmanned flight that, I think, could have commercial applications, and certainly competitive applications.    And so, you know, what has hit me in sort of listening to testimony today is, you know, how do we get to a place that is minimally invasive, with regard to unmanned, and how do we get to a place that keeps Government out of involvement as much as possible, so that we maximize individual freedom without in any way interrupting commercial flight or noncommercial flight.    And so, I was intrigued by what my colleague from California had gotten at, and my colleague from North Carolina. How do we come up with something that is really simple, whether that is the kind of legislation you talked about, so that you don't end up with a bunch of, you know, things being tacked on to this equipment that raises the price, that keeps, frankly, many consumers out of the marketplace? How do you keep up with some massive database? And then we got to hire more bureaucrats to cover the database, watch the 90 percent of folks who wouldn't be a problem. How do we do something quite simple, whether that is the Garamendi language, or something else?    And I guess I would begin with you. Any ideas from your end, Doctor, on something that you may have seen in a different country as a best practice, or something that you may have heard about in talking with other colleagues that would, indeed, be minimally invasive?</t>
   </si>
   <si>
@@ -1244,9 +1181,6 @@
   </si>
   <si>
     <t>412536</t>
-  </si>
-  <si>
-    <t>Rodney Davis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. It is always tough to follow my colleague talking about engine digestion or ingestion or indigestion. So great question, Mr. Larsen.    Hey, thank you for being here. I apologize. Multiple hearings today, so if I am redundant with any of my questions, please forgive me. But I have a concern. I represent central Illinois, home to some of the manufacturers of our newer types of hobby aircraft in UAV technology, and also home to many possible users of this technology for commercial use.    And I know a lot of discussion was on the exemption program that is currently being implemented and run through the FAA. And part of my concerns have to do with some previous hearings like this, where we talked about the exemption process moving very slowly to offer commercial exemptions to those who have applied. And now, since they have sped up, what we have seen is some of the older requests being limited versus some of the newer requests in what can be done with the technology for which they have applied for the exemption.    And Mr. Whitaker, I appreciate that your process has evolved at the FAA, but I think there is--there might be a concern where older applicants and older exemptions that were issued may need to have some of the newer flexibility that some of the newer exemptions that are being issued currently enjoy.    So, can you tell me? Is there a process in place at the FAA right now to look at some of the older applications to see if they need that same type of flexibility? And, if so, are you going to do that unilaterally, or is that something that the previous applicants have to do?</t>
@@ -1747,11 +1681,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1773,11 +1705,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1799,11 +1729,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1823,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1851,11 +1777,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1875,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1903,11 +1825,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1927,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1955,11 +1873,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1979,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2007,11 +1921,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2031,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2059,11 +1969,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2083,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2111,11 +2017,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2135,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2161,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2189,11 +2089,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2213,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2241,11 +2137,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2265,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2293,11 +2185,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2317,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2345,11 +2233,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2369,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2397,11 +2281,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2421,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2449,11 +2329,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2473,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2501,11 +2377,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2525,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2551,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2577,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2603,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2629,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2655,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2681,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2707,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2733,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2759,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2785,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2811,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2837,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2863,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2889,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2915,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2941,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2967,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2993,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3021,11 +2857,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3045,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3073,11 +2905,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3097,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3123,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3149,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3175,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3201,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3227,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3253,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3279,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3305,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>75</v>
-      </c>
-      <c r="H62" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3331,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3357,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3383,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3409,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3435,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3461,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3487,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3513,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3541,11 +3337,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3565,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3591,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3617,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3643,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3669,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3695,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3721,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3747,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3773,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3799,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3825,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3853,11 +3625,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3877,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3903,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3929,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3955,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3981,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4007,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4033,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G90" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4059,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4085,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
         <v>106</v>
-      </c>
-      <c r="G92" t="s">
-        <v>107</v>
-      </c>
-      <c r="H92" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4111,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4137,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4163,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4189,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4215,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4241,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4267,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4293,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>106</v>
-      </c>
-      <c r="G100" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4319,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4345,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>106</v>
-      </c>
-      <c r="G102" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4371,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4397,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>106</v>
-      </c>
-      <c r="G104" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4423,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4449,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>106</v>
-      </c>
-      <c r="G106" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4475,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4501,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>106</v>
-      </c>
-      <c r="G108" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4527,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4553,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>106</v>
-      </c>
-      <c r="G110" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4579,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4605,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>106</v>
-      </c>
-      <c r="G112" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4631,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4657,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>106</v>
-      </c>
-      <c r="G114" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4683,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4709,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>106</v>
-      </c>
-      <c r="G116" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4735,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4761,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>106</v>
-      </c>
-      <c r="G118" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4789,11 +4489,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4813,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>144</v>
-      </c>
-      <c r="G120" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4839,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4865,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>144</v>
-      </c>
-      <c r="G122" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4891,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4917,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4943,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4969,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4995,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5021,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>144</v>
-      </c>
-      <c r="G128" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5047,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5073,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>144</v>
-      </c>
-      <c r="G130" t="s">
+        <v>134</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
         <v>145</v>
-      </c>
-      <c r="H130" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5101,11 +4777,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5125,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
-      </c>
-      <c r="G132" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5151,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5177,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>158</v>
-      </c>
-      <c r="G134" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5203,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5229,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5255,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5281,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5307,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5333,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5359,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5385,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
+        <v>147</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
         <v>158</v>
-      </c>
-      <c r="G142" t="s">
-        <v>159</v>
-      </c>
-      <c r="H142" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5411,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5437,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5463,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5489,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>158</v>
-      </c>
-      <c r="G146" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5515,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5541,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
-      </c>
-      <c r="G148" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5567,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5593,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
-      </c>
-      <c r="G150" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5619,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5645,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>158</v>
-      </c>
-      <c r="G152" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5671,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5699,11 +5329,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5723,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>183</v>
-      </c>
-      <c r="G155" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5749,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5775,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>183</v>
-      </c>
-      <c r="G157" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5801,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5827,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>183</v>
-      </c>
-      <c r="G159" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5853,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5879,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>183</v>
-      </c>
-      <c r="G161" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5905,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5931,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>183</v>
-      </c>
-      <c r="G163" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5957,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5983,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>183</v>
-      </c>
-      <c r="G165" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6009,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6035,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>183</v>
-      </c>
-      <c r="G167" t="s">
+        <v>171</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
         <v>184</v>
-      </c>
-      <c r="H167" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6061,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G168" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6087,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>183</v>
-      </c>
-      <c r="G169" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6113,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6139,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>183</v>
-      </c>
-      <c r="G171" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6165,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6191,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>183</v>
-      </c>
-      <c r="G173" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6217,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6243,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>183</v>
-      </c>
-      <c r="G175" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6271,11 +5857,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6295,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>207</v>
-      </c>
-      <c r="G177" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6321,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6347,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>207</v>
-      </c>
-      <c r="G179" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6373,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6399,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>207</v>
-      </c>
-      <c r="G181" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6425,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6451,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>207</v>
-      </c>
-      <c r="G183" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6477,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6503,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>207</v>
-      </c>
-      <c r="G185" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6529,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6555,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>207</v>
-      </c>
-      <c r="G187" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6581,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>24</v>
-      </c>
-      <c r="G188" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6607,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
+        <v>194</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
         <v>207</v>
-      </c>
-      <c r="G189" t="s">
-        <v>208</v>
-      </c>
-      <c r="H189" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6633,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
-      </c>
-      <c r="G190" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6659,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>207</v>
-      </c>
-      <c r="G191" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6687,11 +6241,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6711,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>225</v>
-      </c>
-      <c r="G193" t="s">
-        <v>226</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6737,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6763,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>225</v>
-      </c>
-      <c r="G195" t="s">
-        <v>226</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6789,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6815,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>225</v>
-      </c>
-      <c r="G197" t="s">
-        <v>226</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6841,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
-      </c>
-      <c r="G198" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6867,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>225</v>
-      </c>
-      <c r="G199" t="s">
-        <v>226</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6893,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6919,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>225</v>
-      </c>
-      <c r="G201" t="s">
-        <v>226</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6947,11 +6481,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6971,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>237</v>
-      </c>
-      <c r="G203" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6997,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7023,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>237</v>
-      </c>
-      <c r="G205" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7049,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7075,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>237</v>
-      </c>
-      <c r="G207" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7101,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7127,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>237</v>
-      </c>
-      <c r="G209" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7153,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>24</v>
-      </c>
-      <c r="G210" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7179,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>237</v>
-      </c>
-      <c r="G211" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7205,13 +6719,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7231,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>237</v>
-      </c>
-      <c r="G213" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7257,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7283,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>237</v>
-      </c>
-      <c r="G215" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7309,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7335,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
+        <v>222</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
         <v>237</v>
-      </c>
-      <c r="G217" t="s">
-        <v>238</v>
-      </c>
-      <c r="H217" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7361,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>24</v>
-      </c>
-      <c r="G218" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7387,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>237</v>
-      </c>
-      <c r="G219" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7413,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>24</v>
-      </c>
-      <c r="G220" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7439,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>237</v>
-      </c>
-      <c r="G221" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7465,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>24</v>
-      </c>
-      <c r="G222" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7491,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>237</v>
-      </c>
-      <c r="G223" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7517,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>24</v>
-      </c>
-      <c r="G224" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7543,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>237</v>
-      </c>
-      <c r="G225" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7569,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>24</v>
-      </c>
-      <c r="G226" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7595,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>237</v>
-      </c>
-      <c r="G227" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7621,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>24</v>
-      </c>
-      <c r="G228" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7647,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>237</v>
-      </c>
-      <c r="G229" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7673,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>24</v>
-      </c>
-      <c r="G230" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7699,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>237</v>
-      </c>
-      <c r="G231" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7725,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>24</v>
-      </c>
-      <c r="G232" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7751,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>237</v>
-      </c>
-      <c r="G233" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7777,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>24</v>
-      </c>
-      <c r="G234" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7803,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>237</v>
-      </c>
-      <c r="G235" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7829,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>24</v>
-      </c>
-      <c r="G236" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7855,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>237</v>
-      </c>
-      <c r="G237" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7881,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>24</v>
-      </c>
-      <c r="G238" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7907,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>237</v>
-      </c>
-      <c r="G239" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7933,13 +7391,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>24</v>
-      </c>
-      <c r="G240" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7959,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>237</v>
-      </c>
-      <c r="G241" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7985,13 +7439,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>24</v>
-      </c>
-      <c r="G242" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8011,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>237</v>
-      </c>
-      <c r="G243" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8037,13 +7487,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>24</v>
-      </c>
-      <c r="G244" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8063,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>237</v>
-      </c>
-      <c r="G245" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8089,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>24</v>
-      </c>
-      <c r="G246" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8115,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>237</v>
-      </c>
-      <c r="G247" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8141,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>24</v>
-      </c>
-      <c r="G248" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8167,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>237</v>
-      </c>
-      <c r="G249" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8193,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>24</v>
-      </c>
-      <c r="G250" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8219,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>237</v>
-      </c>
-      <c r="G251" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8245,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>24</v>
-      </c>
-      <c r="G252" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8271,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>237</v>
-      </c>
-      <c r="G253" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8297,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>24</v>
-      </c>
-      <c r="G254" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8323,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>237</v>
-      </c>
-      <c r="G255" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8349,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>24</v>
-      </c>
-      <c r="G256" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8375,13 +7799,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>237</v>
-      </c>
-      <c r="G257" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8403,11 +7825,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8427,13 +7847,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>292</v>
-      </c>
-      <c r="G259" t="s">
-        <v>293</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8455,11 +7873,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8479,13 +7895,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>296</v>
-      </c>
-      <c r="G261" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8505,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>24</v>
-      </c>
-      <c r="G262" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8531,13 +7943,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>296</v>
-      </c>
-      <c r="G263" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8557,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>24</v>
-      </c>
-      <c r="G264" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8583,13 +7991,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>296</v>
-      </c>
-      <c r="G265" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8609,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>24</v>
-      </c>
-      <c r="G266" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8635,13 +8039,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>296</v>
-      </c>
-      <c r="G267" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8661,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>24</v>
-      </c>
-      <c r="G268" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8687,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>296</v>
-      </c>
-      <c r="G269" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8713,13 +8111,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>24</v>
-      </c>
-      <c r="G270" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8739,13 +8135,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>296</v>
-      </c>
-      <c r="G271" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8765,13 +8159,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>24</v>
-      </c>
-      <c r="G272" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8791,13 +8183,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>296</v>
-      </c>
-      <c r="G273" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8817,13 +8207,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>24</v>
-      </c>
-      <c r="G274" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8843,13 +8231,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>296</v>
-      </c>
-      <c r="G275" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8869,13 +8255,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>24</v>
-      </c>
-      <c r="G276" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8895,13 +8279,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
+        <v>279</v>
+      </c>
+      <c r="G277" t="s"/>
+      <c r="H277" t="s">
         <v>296</v>
-      </c>
-      <c r="G277" t="s">
-        <v>297</v>
-      </c>
-      <c r="H277" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8921,13 +8303,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>24</v>
-      </c>
-      <c r="G278" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8947,13 +8327,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>296</v>
-      </c>
-      <c r="G279" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8973,13 +8351,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>24</v>
-      </c>
-      <c r="G280" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8999,13 +8375,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>296</v>
-      </c>
-      <c r="G281" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9025,13 +8399,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>24</v>
-      </c>
-      <c r="G282" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9051,13 +8423,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>296</v>
-      </c>
-      <c r="G283" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9077,13 +8447,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>24</v>
-      </c>
-      <c r="G284" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9103,13 +8471,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>296</v>
-      </c>
-      <c r="G285" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9129,13 +8495,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>24</v>
-      </c>
-      <c r="G286" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9155,13 +8519,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>296</v>
-      </c>
-      <c r="G287" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9181,13 +8543,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>24</v>
-      </c>
-      <c r="G288" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9207,13 +8567,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>296</v>
-      </c>
-      <c r="G289" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9233,13 +8591,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>24</v>
-      </c>
-      <c r="G290" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9259,13 +8615,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>296</v>
-      </c>
-      <c r="G291" t="s">
-        <v>297</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9285,13 +8639,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>24</v>
-      </c>
-      <c r="G292" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9311,13 +8663,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>327</v>
-      </c>
-      <c r="G293" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9337,13 +8687,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>330</v>
-      </c>
-      <c r="G294" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9363,13 +8711,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>24</v>
-      </c>
-      <c r="G295" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9389,13 +8735,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>330</v>
-      </c>
-      <c r="G296" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9415,13 +8759,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>24</v>
-      </c>
-      <c r="G297" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9441,13 +8783,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>330</v>
-      </c>
-      <c r="G298" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9467,13 +8807,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>24</v>
-      </c>
-      <c r="G299" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9493,13 +8831,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>330</v>
-      </c>
-      <c r="G300" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9519,13 +8855,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>24</v>
-      </c>
-      <c r="G301" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9545,13 +8879,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>330</v>
-      </c>
-      <c r="G302" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9571,13 +8903,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>24</v>
-      </c>
-      <c r="G303" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9597,13 +8927,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>330</v>
-      </c>
-      <c r="G304" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9623,13 +8951,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>24</v>
-      </c>
-      <c r="G305" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9649,13 +8975,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>330</v>
-      </c>
-      <c r="G306" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9675,13 +8999,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>24</v>
-      </c>
-      <c r="G307" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9701,13 +9023,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>330</v>
-      </c>
-      <c r="G308" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9727,13 +9047,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>24</v>
-      </c>
-      <c r="G309" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9753,13 +9071,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>330</v>
-      </c>
-      <c r="G310" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9779,13 +9095,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>24</v>
-      </c>
-      <c r="G311" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9805,13 +9119,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
+        <v>311</v>
+      </c>
+      <c r="G312" t="s"/>
+      <c r="H312" t="s">
         <v>330</v>
-      </c>
-      <c r="G312" t="s">
-        <v>331</v>
-      </c>
-      <c r="H312" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9831,13 +9143,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>24</v>
-      </c>
-      <c r="G313" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9857,13 +9167,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>330</v>
-      </c>
-      <c r="G314" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9883,13 +9191,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>24</v>
-      </c>
-      <c r="G315" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9909,13 +9215,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>330</v>
-      </c>
-      <c r="G316" t="s">
-        <v>331</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9935,13 +9239,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>327</v>
-      </c>
-      <c r="G317" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9961,13 +9263,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>356</v>
-      </c>
-      <c r="G318" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9987,13 +9287,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>24</v>
-      </c>
-      <c r="G319" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10013,13 +9311,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>356</v>
-      </c>
-      <c r="G320" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10039,13 +9335,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>24</v>
-      </c>
-      <c r="G321" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10065,13 +9359,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>356</v>
-      </c>
-      <c r="G322" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10091,13 +9383,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>24</v>
-      </c>
-      <c r="G323" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10117,13 +9407,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>356</v>
-      </c>
-      <c r="G324" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10143,13 +9431,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>24</v>
-      </c>
-      <c r="G325" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10169,13 +9455,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>356</v>
-      </c>
-      <c r="G326" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10195,13 +9479,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>24</v>
-      </c>
-      <c r="G327" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10221,13 +9503,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>356</v>
-      </c>
-      <c r="G328" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10247,13 +9527,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>24</v>
-      </c>
-      <c r="G329" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10273,13 +9551,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>356</v>
-      </c>
-      <c r="G330" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10299,13 +9575,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>24</v>
-      </c>
-      <c r="G331" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10325,13 +9599,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>356</v>
-      </c>
-      <c r="G332" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10351,13 +9623,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>24</v>
-      </c>
-      <c r="G333" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10377,13 +9647,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>356</v>
-      </c>
-      <c r="G334" t="s">
-        <v>357</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10403,13 +9671,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>327</v>
-      </c>
-      <c r="G335" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10429,13 +9695,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>16</v>
-      </c>
-      <c r="G336" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10455,13 +9719,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>24</v>
-      </c>
-      <c r="G337" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10481,13 +9743,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>16</v>
-      </c>
-      <c r="G338" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10507,13 +9767,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>24</v>
-      </c>
-      <c r="G339" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10533,13 +9791,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>16</v>
-      </c>
-      <c r="G340" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10559,13 +9815,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>24</v>
-      </c>
-      <c r="G341" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10585,13 +9839,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>16</v>
-      </c>
-      <c r="G342" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10611,13 +9863,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>24</v>
-      </c>
-      <c r="G343" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10637,13 +9887,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>16</v>
-      </c>
-      <c r="G344" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10663,13 +9911,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>24</v>
-      </c>
-      <c r="G345" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10689,13 +9935,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>16</v>
-      </c>
-      <c r="G346" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10715,13 +9959,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>24</v>
-      </c>
-      <c r="G347" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10741,13 +9983,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>16</v>
-      </c>
-      <c r="G348" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10767,13 +10007,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>24</v>
-      </c>
-      <c r="G349" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10793,13 +10031,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>16</v>
-      </c>
-      <c r="G350" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10819,13 +10055,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>24</v>
-      </c>
-      <c r="G351" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10845,13 +10079,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>16</v>
-      </c>
-      <c r="G352" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10871,13 +10103,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>24</v>
-      </c>
-      <c r="G353" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10897,13 +10127,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>16</v>
-      </c>
-      <c r="G354" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10923,13 +10151,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>24</v>
-      </c>
-      <c r="G355" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10949,13 +10175,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>16</v>
-      </c>
-      <c r="G356" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10975,13 +10199,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>24</v>
-      </c>
-      <c r="G357" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11001,13 +10223,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>16</v>
-      </c>
-      <c r="G358" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11027,13 +10247,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>24</v>
-      </c>
-      <c r="G359" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11053,13 +10271,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>16</v>
-      </c>
-      <c r="G360" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11079,13 +10295,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>24</v>
-      </c>
-      <c r="G361" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11105,13 +10319,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>16</v>
-      </c>
-      <c r="G362" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11131,13 +10343,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>24</v>
-      </c>
-      <c r="G363" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11157,13 +10367,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>16</v>
-      </c>
-      <c r="G364" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11183,13 +10391,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>24</v>
-      </c>
-      <c r="G365" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11209,13 +10415,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>16</v>
-      </c>
-      <c r="G366" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11235,13 +10439,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>24</v>
-      </c>
-      <c r="G367" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11261,13 +10463,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>16</v>
-      </c>
-      <c r="G368" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11287,13 +10487,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>24</v>
-      </c>
-      <c r="G369" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11313,13 +10511,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>16</v>
-      </c>
-      <c r="G370" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11339,13 +10535,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>327</v>
-      </c>
-      <c r="G371" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11365,13 +10559,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>409</v>
-      </c>
-      <c r="G372" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11391,13 +10583,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>24</v>
-      </c>
-      <c r="G373" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11417,13 +10607,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>409</v>
-      </c>
-      <c r="G374" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11443,13 +10631,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>24</v>
-      </c>
-      <c r="G375" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11469,13 +10655,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>409</v>
-      </c>
-      <c r="G376" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11495,13 +10679,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>24</v>
-      </c>
-      <c r="G377" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11521,13 +10703,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>409</v>
-      </c>
-      <c r="G378" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11547,13 +10727,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>24</v>
-      </c>
-      <c r="G379" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11573,13 +10751,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>409</v>
-      </c>
-      <c r="G380" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11599,13 +10775,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>24</v>
-      </c>
-      <c r="G381" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11625,13 +10799,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>409</v>
-      </c>
-      <c r="G382" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11651,13 +10823,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>24</v>
-      </c>
-      <c r="G383" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11677,13 +10847,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>409</v>
-      </c>
-      <c r="G384" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11703,13 +10871,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>24</v>
-      </c>
-      <c r="G385" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11729,13 +10895,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>409</v>
-      </c>
-      <c r="G386" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11755,13 +10919,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>24</v>
-      </c>
-      <c r="G387" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11781,13 +10943,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>409</v>
-      </c>
-      <c r="G388" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11807,13 +10967,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>24</v>
-      </c>
-      <c r="G389" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11833,13 +10991,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>409</v>
-      </c>
-      <c r="G390" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11859,13 +11015,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>24</v>
-      </c>
-      <c r="G391" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11885,13 +11039,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>409</v>
-      </c>
-      <c r="G392" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11911,13 +11063,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>24</v>
-      </c>
-      <c r="G393" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11937,13 +11087,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>409</v>
-      </c>
-      <c r="G394" t="s">
-        <v>410</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11963,13 +11111,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>327</v>
-      </c>
-      <c r="G395" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11989,13 +11135,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>24</v>
-      </c>
-      <c r="G396" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12015,13 +11159,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>327</v>
-      </c>
-      <c r="G397" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12041,13 +11183,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>24</v>
-      </c>
-      <c r="G398" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12067,13 +11207,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>327</v>
-      </c>
-      <c r="G399" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12093,13 +11231,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>24</v>
-      </c>
-      <c r="G400" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12119,13 +11255,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>327</v>
-      </c>
-      <c r="G401" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12145,13 +11279,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>24</v>
-      </c>
-      <c r="G402" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12171,13 +11303,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>327</v>
-      </c>
-      <c r="G403" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12197,13 +11327,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>24</v>
-      </c>
-      <c r="G404" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12223,13 +11351,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>327</v>
-      </c>
-      <c r="G405" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12249,13 +11375,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>24</v>
-      </c>
-      <c r="G406" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12275,13 +11399,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>327</v>
-      </c>
-      <c r="G407" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12301,13 +11423,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>24</v>
-      </c>
-      <c r="G408" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12327,13 +11447,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>327</v>
-      </c>
-      <c r="G409" t="s">
-        <v>328</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
